--- a/trading/database/@cQMS_H5/ContractInfo/FutureInfo.xlsx
+++ b/trading/database/@cQMS_H5/ContractInfo/FutureInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick Zhu\Documents\Synology Cloud\intern\7.朱江\test_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\matlabtraderdev\trading\database\@cQMS_H5\ContractInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,19 +38,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IH1604</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IH1606</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IH1605</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IH1609</t>
+    <t>T1809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF1809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF1812</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,13 +387,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -415,29 +415,29 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>42475</v>
+        <v>43357</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>42510</v>
+        <v>43357</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>42538</v>
+        <v>43448</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -448,12 +448,12 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>42629</v>
+        <v>43448</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>